--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Isblank_Fx.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Isblank_Fx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\SpreadSheet\master\calculation-engine\engine-demo\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\spreadsheet\CalculationEngine\calculation-engine\engine-tests\engine-it-graph\src\test\resources\standard_excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -340,7 +340,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,10 +392,6 @@
       <c r="B5">
         <v>7</v>
       </c>
-      <c r="C5" t="e">
-        <f>vfbjak</f>
-        <v>#NAME?</v>
-      </c>
       <c r="D5" t="b">
         <f>ISBLANK(D2)</f>
         <v>0</v>
@@ -419,7 +415,7 @@
       </c>
       <c r="D7" t="b">
         <f>ISBLANK(C5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -429,15 +425,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000BBA6CFB0E2DE4B9D0F8FC00657BC00" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b5fa52e5d42efb553dd3c6ab2e94e30b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -551,6 +538,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -558,13 +554,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B37F8E-2654-4E9E-BE77-28CB6958ECB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A18B3F-338A-4A3D-8624-957862285315}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A18B3F-338A-4A3D-8624-957862285315}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B37F8E-2654-4E9E-BE77-28CB6958ECB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70405C29-7C35-4B1F-A8CE-6EED9372FDBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70405C29-7C35-4B1F-A8CE-6EED9372FDBB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Isblank_Fx.xlsx
+++ b/calculation-engine/engine-tests/engine-it-graph/src/test/resources/standard_excel_files/Isblank_Fx.xlsx
@@ -340,7 +340,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,6 +384,10 @@
       <c r="B4">
         <v>6</v>
       </c>
+      <c r="D4" t="b">
+        <f>ISBLANK(C4)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -392,6 +396,10 @@
       <c r="B5">
         <v>7</v>
       </c>
+      <c r="C5" t="e">
+        <f>vfbjak</f>
+        <v>#NAME?</v>
+      </c>
       <c r="D5" t="b">
         <f>ISBLANK(D2)</f>
         <v>0</v>
@@ -415,7 +423,7 @@
       </c>
       <c r="D7" t="b">
         <f>ISBLANK(C5)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
